--- a/biology/Histoire de la zoologie et de la botanique/Jardin_botanique_de_Munich/Jardin_botanique_de_Munich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jardin_botanique_de_Munich/Jardin_botanique_de_Munich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de Munich (en allemand : Botanischer Garten München-Nymphenburg) est un jardin botanique et arboretum situé à Munich, en Bavière, au 65 Menzinger Straße. Il est situé au nord du parc du château de Nymphenburg. D'une superficie de 21,20 hectares, il est ouvert toute l'année, sauf les 24 et 31 décembre. Son accès est payant.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier jardin botanique de Munich, maintenant connu sous le nom d'« Ancien Jardin botanique » avait été créé en 1809 sur des plans de Friedrich Ludwig von Sckell près de Karlsplatz, où ses restes sont encore visibles.
 Le jardin actuel a été créé en 1914 dans les faubourgs de la ville au Nymphenburg sur des plans des paysagistes Holfeld. En 1966, il a été rattaché à la Collection botanique d'État de Munich (en) et à l'Institut de systématique botanique de l'université Louis-et-Maximilien de Munich.
@@ -544,7 +558,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On y cultive aujourd'hui environ 14 000 espèces sur environ 18 hectares. Il a un rôle d'éducation du public, d'enseignement des étudiants de l'université Louis-et-Maximilien et de conservation d'espèces de plantes et d'abeilles européennes rares. Il contient notamment un jardin alpin, un arboretum, une collection de plantes des landes acides et des steppes, de rhododendrons, une roseraie et un jardin de systématique.
 Le jardin contient également un complexe de onze serres couvrant 4 500 m2. On y trouve des espaces pour les Broméliacées et les Arecacées, les cactus et les plantes succulentes, les Cycadales, les Fougères, les Orchidées, et pour les plantes du Mexique. la collection d'orchidées compte plus de 2700 espèces dans 270 genres, ainsi que des hybrides, avec des collections particulières de Catasetinae, Cattleya (unifoliates), Cymbidium, Dendrobium, Dracula, Paphiopedilum, Phragmipedium, Pleione, Stanhopeinae, Vanda et Zygopetalinae.
